--- a/BackTest/2019-11-01 BackTest BCD.xlsx
+++ b/BackTest/2019-11-01 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -585,6 +593,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -655,6 +665,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,6 +701,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -725,6 +737,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,6 +773,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -795,6 +809,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -830,6 +845,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -865,6 +881,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,6 +917,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,6 +953,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,6 +989,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,6 +1025,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,6 +1061,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1075,6 +1097,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1110,6 +1133,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1145,6 +1169,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,6 +1205,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1215,6 +1241,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,6 +1277,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1285,6 +1313,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,6 +1349,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1355,6 +1385,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1390,6 +1421,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1425,6 +1457,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1460,6 +1493,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,6 +1529,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1530,6 +1565,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1565,6 +1601,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1600,6 +1637,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1673,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1705,6 +1745,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1740,6 +1781,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1810,6 +1853,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1845,6 +1889,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,6 +1925,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1915,6 +1961,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1950,6 +1997,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1985,6 +2033,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,6 +2069,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2055,6 +2105,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2090,6 +2141,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2125,6 +2177,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2160,6 +2213,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2195,6 +2249,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2230,6 +2285,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2265,6 +2321,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2300,6 +2357,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2339,6 +2397,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2382,6 +2441,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2425,6 +2485,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2464,6 +2525,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2507,6 +2569,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2548,6 +2611,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2587,6 +2651,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2628,6 +2693,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2669,6 +2735,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2704,6 +2771,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2739,6 +2807,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2774,6 +2843,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2809,6 +2879,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2844,6 +2915,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2879,6 +2951,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2914,6 +2987,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2949,6 +3023,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2984,6 +3059,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3019,6 +3095,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3054,6 +3131,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3089,6 +3167,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3124,6 +3203,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3159,6 +3239,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,6 +3275,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3229,6 +3311,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,6 +3347,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3299,6 +3383,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3334,6 +3419,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3369,6 +3455,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3404,6 +3491,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3439,6 +3527,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3474,6 +3563,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3509,6 +3599,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3544,6 +3635,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3579,6 +3671,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3614,6 +3707,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3649,6 +3743,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3684,6 +3779,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3719,6 +3815,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3754,6 +3851,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3789,6 +3887,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3824,6 +3923,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3859,6 +3959,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3894,6 +3995,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3929,6 +4031,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3964,6 +4067,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3999,6 +4103,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4034,6 +4139,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4069,6 +4175,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4104,6 +4211,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4139,6 +4247,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4174,6 +4283,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4209,6 +4319,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4244,6 +4355,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4279,6 +4391,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4314,6 +4427,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4349,6 +4463,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4384,6 +4499,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4419,6 +4535,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4454,6 +4571,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4489,6 +4607,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4524,6 +4643,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4551,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4559,6 +4679,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4594,6 +4715,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4621,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4629,6 +4751,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4656,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4664,6 +4787,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4691,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4699,6 +4823,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4726,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4734,6 +4859,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4769,6 +4895,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4804,6 +4931,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4839,6 +4967,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4874,6 +5003,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4909,6 +5039,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4944,6 +5075,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4979,6 +5111,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5014,6 +5147,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest BCD.xlsx
+++ b/BackTest/2019-11-01 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C2" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D2" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E2" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F2" t="n">
-        <v>491.0596</v>
+        <v>102.21465076</v>
       </c>
       <c r="G2" t="n">
-        <v>-23084.38714924</v>
+        <v>-17759.78534924</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C3" t="n">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D3" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E3" t="n">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F3" t="n">
-        <v>338.13504273</v>
+        <v>622.7986</v>
       </c>
       <c r="G3" t="n">
-        <v>-22746.25210651</v>
+        <v>-18382.58394924</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>581</v>
-      </c>
-      <c r="K3" t="n">
-        <v>581</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C4" t="n">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D4" t="n">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E4" t="n">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F4" t="n">
-        <v>289</v>
+        <v>1200</v>
       </c>
       <c r="G4" t="n">
-        <v>-23035.25210651</v>
+        <v>-18382.58394924</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>585</v>
-      </c>
-      <c r="K4" t="n">
-        <v>581</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C5" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D5" t="n">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E5" t="n">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F5" t="n">
-        <v>144</v>
+        <v>1500</v>
       </c>
       <c r="G5" t="n">
-        <v>-22891.25210651</v>
+        <v>-19882.58394924</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,14 +570,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>581</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,32 +582,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C6" t="n">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="D6" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E6" t="n">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="F6" t="n">
-        <v>80.39490000000001</v>
+        <v>467.5587</v>
       </c>
       <c r="G6" t="n">
-        <v>-22891.25210651</v>
+        <v>-20350.14264924</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>580</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,32 +624,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C7" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D7" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E7" t="n">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="F7" t="n">
-        <v>5.727e-05</v>
+        <v>3549.9999</v>
       </c>
       <c r="G7" t="n">
-        <v>-22891.25210651</v>
+        <v>-16800.14274924</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>578</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -672,32 +666,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C8" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E8" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F8" t="n">
-        <v>1000.5492</v>
+        <v>2.10787671</v>
       </c>
       <c r="G8" t="n">
-        <v>-22891.25210651</v>
+        <v>-16800.14274924</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>584</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C9" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D9" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E9" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="F9" t="n">
-        <v>5589.9915</v>
+        <v>2030.7264</v>
       </c>
       <c r="G9" t="n">
-        <v>-17301.26060651</v>
+        <v>-18830.86914924</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -733,7 +733,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -744,32 +748,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C10" t="n">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="D10" t="n">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E10" t="n">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="F10" t="n">
-        <v>908</v>
+        <v>3159.7545</v>
       </c>
       <c r="G10" t="n">
-        <v>-18209.26060651</v>
+        <v>-21990.62364924</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>580</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -780,32 +790,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="C11" t="n">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D11" t="n">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="E11" t="n">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F11" t="n">
-        <v>71.51430000000001</v>
+        <v>680.6094000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-18137.74630651</v>
+        <v>-21990.62364924</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>578</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -816,32 +832,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C12" t="n">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D12" t="n">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="E12" t="n">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F12" t="n">
-        <v>6.0115</v>
+        <v>2511.6836</v>
       </c>
       <c r="G12" t="n">
-        <v>-18131.73480651</v>
+        <v>-21990.62364924</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>578</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -852,32 +874,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="C13" t="n">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="D13" t="n">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E13" t="n">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="F13" t="n">
-        <v>1255.4665</v>
+        <v>3668.5393</v>
       </c>
       <c r="G13" t="n">
-        <v>-16876.26830651</v>
+        <v>-18322.08434924</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>578</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -888,32 +916,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="C14" t="n">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D14" t="n">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="E14" t="n">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>1578.5718</v>
       </c>
       <c r="G14" t="n">
-        <v>-16876.26830651</v>
+        <v>-19900.65614924</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>581</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -924,32 +958,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="C15" t="n">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="D15" t="n">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="E15" t="n">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="F15" t="n">
-        <v>70</v>
+        <v>101.9591</v>
       </c>
       <c r="G15" t="n">
-        <v>-16946.26830651</v>
+        <v>-19798.69704924</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>575</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -960,32 +1000,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C16" t="n">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="D16" t="n">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="E16" t="n">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="F16" t="n">
-        <v>181</v>
+        <v>1216.993</v>
       </c>
       <c r="G16" t="n">
-        <v>-16946.26830651</v>
+        <v>-19798.69704924</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>578</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -996,32 +1042,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C17" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="D17" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E17" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="F17" t="n">
-        <v>148.7046</v>
+        <v>1.4403</v>
       </c>
       <c r="G17" t="n">
-        <v>-16946.26830651</v>
+        <v>-19797.25674924</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>578</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1032,32 +1084,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C18" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="D18" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E18" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="F18" t="n">
-        <v>214</v>
+        <v>1094.5254</v>
       </c>
       <c r="G18" t="n">
-        <v>-16946.26830651</v>
+        <v>-19797.25674924</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>579</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1068,32 +1126,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C19" t="n">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="D19" t="n">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="E19" t="n">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="F19" t="n">
-        <v>86.85890000000001</v>
+        <v>3017.2559</v>
       </c>
       <c r="G19" t="n">
-        <v>-16946.26830651</v>
+        <v>-22814.51264924</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>579</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1104,32 +1168,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C20" t="n">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="D20" t="n">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="E20" t="n">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="F20" t="n">
-        <v>3431.5649</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>-13514.70340651</v>
+        <v>-22812.51264924</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>578</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1140,32 +1210,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="C21" t="n">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="D21" t="n">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="E21" t="n">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F21" t="n">
-        <v>176.5003</v>
+        <v>436</v>
       </c>
       <c r="G21" t="n">
-        <v>-13514.70340651</v>
+        <v>-23248.51264924</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>583</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1176,22 +1252,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C22" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="D22" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="E22" t="n">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="F22" t="n">
-        <v>267.7944</v>
+        <v>2444.6372</v>
       </c>
       <c r="G22" t="n">
-        <v>-13514.70340651</v>
+        <v>-20803.87544924</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1201,7 +1277,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1212,22 +1292,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="C23" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="D23" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="E23" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="F23" t="n">
-        <v>280.3747</v>
+        <v>602.9725</v>
       </c>
       <c r="G23" t="n">
-        <v>-13514.70340651</v>
+        <v>-20803.87544924</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1237,7 +1317,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1248,22 +1332,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="C24" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="D24" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="E24" t="n">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="F24" t="n">
-        <v>221</v>
+        <v>772.1134</v>
       </c>
       <c r="G24" t="n">
-        <v>-13514.70340651</v>
+        <v>-20803.87544924</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1273,7 +1357,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1284,22 +1372,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C25" t="n">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="D25" t="n">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="E25" t="n">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="F25" t="n">
-        <v>426</v>
+        <v>3947.5713</v>
       </c>
       <c r="G25" t="n">
-        <v>-13514.70340651</v>
+        <v>-24751.44674924</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1309,7 +1397,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1320,22 +1412,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C26" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="D26" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="E26" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="F26" t="n">
-        <v>300</v>
+        <v>1176</v>
       </c>
       <c r="G26" t="n">
-        <v>-13814.70340651</v>
+        <v>-23575.44674924</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1345,7 +1437,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1356,22 +1452,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="C27" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D27" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E27" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="F27" t="n">
-        <v>151</v>
+        <v>339.9999</v>
       </c>
       <c r="G27" t="n">
-        <v>-13965.70340651</v>
+        <v>-23575.44674924</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1381,7 +1477,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1392,22 +1492,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="C28" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D28" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E28" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="F28" t="n">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="G28" t="n">
-        <v>-13965.70340651</v>
+        <v>-23575.44674924</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1417,7 +1517,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1428,22 +1532,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C29" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="D29" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E29" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F29" t="n">
-        <v>1649.41</v>
+        <v>353</v>
       </c>
       <c r="G29" t="n">
-        <v>-15615.11340651</v>
+        <v>-23575.44674924</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1453,7 +1557,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1464,22 +1572,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C30" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="D30" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E30" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F30" t="n">
-        <v>464.199</v>
+        <v>0.0001</v>
       </c>
       <c r="G30" t="n">
-        <v>-15615.11340651</v>
+        <v>-23575.44674924</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1489,7 +1597,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1500,32 +1612,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C31" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D31" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E31" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="F31" t="n">
-        <v>28.9088</v>
+        <v>491.0596</v>
       </c>
       <c r="G31" t="n">
-        <v>-15644.02220651</v>
+        <v>-23084.38714924</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>580</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1536,22 +1654,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C32" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D32" t="n">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E32" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F32" t="n">
-        <v>3737.5482</v>
+        <v>338.13504273</v>
       </c>
       <c r="G32" t="n">
-        <v>-19381.57040651</v>
+        <v>-22746.25210651</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1561,7 +1679,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1572,22 +1694,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C33" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D33" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E33" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F33" t="n">
-        <v>20.1672</v>
+        <v>289</v>
       </c>
       <c r="G33" t="n">
-        <v>-19401.73760651</v>
+        <v>-23035.25210651</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1597,7 +1719,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1608,7 +1734,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C34" t="n">
         <v>590</v>
@@ -1617,13 +1743,13 @@
         <v>590</v>
       </c>
       <c r="E34" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="G34" t="n">
-        <v>-19401.73760651</v>
+        <v>-22891.25210651</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1633,7 +1759,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1647,19 +1777,19 @@
         <v>590</v>
       </c>
       <c r="C35" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D35" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E35" t="n">
         <v>590</v>
       </c>
       <c r="F35" t="n">
-        <v>1.68058657</v>
+        <v>80.39490000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-19400.05701994</v>
+        <v>-22891.25210651</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1669,7 +1799,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1680,22 +1814,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C36" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E36" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F36" t="n">
-        <v>139.5243</v>
+        <v>5.727e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>-19400.05701994</v>
+        <v>-22891.25210651</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1705,7 +1839,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1716,22 +1854,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C37" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D37" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E37" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F37" t="n">
-        <v>466.4682</v>
+        <v>1000.5492</v>
       </c>
       <c r="G37" t="n">
-        <v>-19866.52521994</v>
+        <v>-22891.25210651</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1741,7 +1879,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1752,22 +1894,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C38" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D38" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E38" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F38" t="n">
-        <v>348</v>
+        <v>5589.9915</v>
       </c>
       <c r="G38" t="n">
-        <v>-19866.52521994</v>
+        <v>-17301.26060651</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1777,7 +1919,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1788,22 +1934,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C39" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D39" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E39" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F39" t="n">
-        <v>463</v>
+        <v>908</v>
       </c>
       <c r="G39" t="n">
-        <v>-19866.52521994</v>
+        <v>-18209.26060651</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1813,7 +1959,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1824,7 +1974,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C40" t="n">
         <v>593</v>
@@ -1833,13 +1983,13 @@
         <v>593</v>
       </c>
       <c r="E40" t="n">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F40" t="n">
-        <v>235.3779</v>
+        <v>71.51430000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-19866.52521994</v>
+        <v>-18137.74630651</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1849,7 +1999,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1860,22 +2014,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C41" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D41" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E41" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F41" t="n">
-        <v>458.0118</v>
+        <v>6.0115</v>
       </c>
       <c r="G41" t="n">
-        <v>-19866.52521994</v>
+        <v>-18131.73480651</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1885,7 +2039,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1896,22 +2054,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C42" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D42" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E42" t="n">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F42" t="n">
-        <v>1363.2652</v>
+        <v>1255.4665</v>
       </c>
       <c r="G42" t="n">
-        <v>-19866.52521994</v>
+        <v>-16876.26830651</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1921,7 +2079,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1932,22 +2094,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C43" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D43" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E43" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F43" t="n">
-        <v>1.68634064</v>
+        <v>300</v>
       </c>
       <c r="G43" t="n">
-        <v>-19866.52521994</v>
+        <v>-16876.26830651</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1957,7 +2119,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1968,22 +2134,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C44" t="n">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D44" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="E44" t="n">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F44" t="n">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="G44" t="n">
-        <v>-20336.52521994</v>
+        <v>-16946.26830651</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1993,7 +2159,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2004,22 +2174,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="C45" t="n">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D45" t="n">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="E45" t="n">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F45" t="n">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c r="G45" t="n">
-        <v>-20336.52521994</v>
+        <v>-16946.26830651</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2029,7 +2199,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2040,22 +2214,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C46" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="D46" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="E46" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="F46" t="n">
-        <v>216.233</v>
+        <v>148.7046</v>
       </c>
       <c r="G46" t="n">
-        <v>-20120.29221994</v>
+        <v>-16946.26830651</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2065,7 +2239,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2076,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C47" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D47" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="E47" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="F47" t="n">
-        <v>2.3061</v>
+        <v>214</v>
       </c>
       <c r="G47" t="n">
-        <v>-20117.98611994</v>
+        <v>-16946.26830651</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2101,7 +2279,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2112,22 +2294,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C48" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="D48" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="E48" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>86.85890000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-20137.98611994</v>
+        <v>-16946.26830651</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2137,7 +2319,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2334,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C49" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D49" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="E49" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="F49" t="n">
-        <v>46.24261345</v>
+        <v>3431.5649</v>
       </c>
       <c r="G49" t="n">
-        <v>-20091.74350649</v>
+        <v>-13514.70340651</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2173,7 +2359,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2184,22 +2374,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="C50" t="n">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="D50" t="n">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="E50" t="n">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="F50" t="n">
-        <v>425.4503</v>
+        <v>176.5003</v>
       </c>
       <c r="G50" t="n">
-        <v>-20517.19380649</v>
+        <v>-13514.70340651</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2209,7 +2399,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2220,35 +2414,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="C51" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D51" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="E51" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="F51" t="n">
-        <v>104.9999</v>
+        <v>267.7944</v>
       </c>
       <c r="G51" t="n">
-        <v>-20412.19390649</v>
+        <v>-13514.70340651</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2256,28 +2452,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="C52" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D52" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="E52" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="F52" t="n">
-        <v>716.1158</v>
+        <v>280.3747</v>
       </c>
       <c r="G52" t="n">
-        <v>-20412.19390649</v>
+        <v>-13514.70340651</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2292,22 +2488,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="C53" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D53" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="E53" t="n">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="F53" t="n">
-        <v>289.6081</v>
+        <v>221</v>
       </c>
       <c r="G53" t="n">
-        <v>-20412.19390649</v>
+        <v>-13514.70340651</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2328,22 +2524,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="C54" t="n">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="D54" t="n">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="E54" t="n">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="F54" t="n">
-        <v>1190</v>
+        <v>426</v>
       </c>
       <c r="G54" t="n">
-        <v>-21602.19390649</v>
+        <v>-13514.70340651</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,35 +2560,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="C55" t="n">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="D55" t="n">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="E55" t="n">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="F55" t="n">
-        <v>331.7192</v>
+        <v>300</v>
       </c>
       <c r="G55" t="n">
-        <v>-21602.19390649</v>
+        <v>-13814.70340651</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>581</v>
-      </c>
-      <c r="K55" t="n">
-        <v>581</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2404,40 +2596,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="C56" t="n">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D56" t="n">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="E56" t="n">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="F56" t="n">
-        <v>650</v>
+        <v>151</v>
       </c>
       <c r="G56" t="n">
-        <v>-20952.19390649</v>
+        <v>-13965.70340651</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>581</v>
-      </c>
-      <c r="K56" t="n">
-        <v>581</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2448,40 +2632,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C57" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="D57" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E57" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="F57" t="n">
-        <v>550</v>
+        <v>152</v>
       </c>
       <c r="G57" t="n">
-        <v>-21502.19390649</v>
+        <v>-13965.70340651</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>587</v>
-      </c>
-      <c r="K57" t="n">
-        <v>581</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2492,35 +2668,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C58" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D58" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E58" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F58" t="n">
-        <v>540</v>
+        <v>1649.41</v>
       </c>
       <c r="G58" t="n">
-        <v>-21502.19390649</v>
+        <v>-15615.11340651</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>586</v>
-      </c>
-      <c r="K58" t="n">
-        <v>586</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2532,40 +2704,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C59" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D59" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E59" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F59" t="n">
-        <v>762.923</v>
+        <v>464.199</v>
       </c>
       <c r="G59" t="n">
-        <v>-20739.27090649</v>
+        <v>-15615.11340651</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>586</v>
-      </c>
-      <c r="K59" t="n">
-        <v>586</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2576,22 +2740,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C60" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D60" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E60" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F60" t="n">
-        <v>21</v>
+        <v>28.9088</v>
       </c>
       <c r="G60" t="n">
-        <v>-20718.27090649</v>
+        <v>-15644.02220651</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2600,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>586</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2618,35 +2776,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C61" t="n">
         <v>591</v>
       </c>
       <c r="D61" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E61" t="n">
         <v>591</v>
       </c>
       <c r="F61" t="n">
-        <v>9</v>
+        <v>3737.5482</v>
       </c>
       <c r="G61" t="n">
-        <v>-20718.27090649</v>
+        <v>-19381.57040651</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>591</v>
-      </c>
-      <c r="K61" t="n">
-        <v>591</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2658,22 +2812,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C62" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D62" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F62" t="n">
-        <v>1553.74685936</v>
+        <v>20.1672</v>
       </c>
       <c r="G62" t="n">
-        <v>-19164.52404713001</v>
+        <v>-19401.73760651</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2682,14 +2836,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>591</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2700,22 +2848,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C63" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D63" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E63" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F63" t="n">
-        <v>1216.84504064</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>-19164.52404713001</v>
+        <v>-19401.73760651</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2724,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>591</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2884,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C64" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D64" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E64" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F64" t="n">
-        <v>827.58942385</v>
+        <v>1.68058657</v>
       </c>
       <c r="G64" t="n">
-        <v>-18336.93462328001</v>
+        <v>-19400.05701994</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2778,22 +2920,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C65" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D65" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E65" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>139.5243</v>
       </c>
       <c r="G65" t="n">
-        <v>-18341.93462328001</v>
+        <v>-19400.05701994</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2826,10 +2968,10 @@
         <v>593</v>
       </c>
       <c r="F66" t="n">
-        <v>174.609</v>
+        <v>466.4682</v>
       </c>
       <c r="G66" t="n">
-        <v>-18516.54362328001</v>
+        <v>-19866.52521994</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2850,22 +2992,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C67" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D67" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E67" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F67" t="n">
-        <v>191.0114</v>
+        <v>348</v>
       </c>
       <c r="G67" t="n">
-        <v>-18707.55502328001</v>
+        <v>-19866.52521994</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2886,22 +3028,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C68" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D68" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E68" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F68" t="n">
-        <v>386</v>
+        <v>463</v>
       </c>
       <c r="G68" t="n">
-        <v>-18707.55502328001</v>
+        <v>-19866.52521994</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2922,22 +3064,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C69" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D69" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E69" t="n">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F69" t="n">
-        <v>339</v>
+        <v>235.3779</v>
       </c>
       <c r="G69" t="n">
-        <v>-18707.55502328001</v>
+        <v>-19866.52521994</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2958,22 +3100,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C70" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D70" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E70" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F70" t="n">
-        <v>59.5657</v>
+        <v>458.0118</v>
       </c>
       <c r="G70" t="n">
-        <v>-18707.55502328001</v>
+        <v>-19866.52521994</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2994,22 +3136,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C71" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D71" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E71" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F71" t="n">
-        <v>239.1448</v>
+        <v>1363.2652</v>
       </c>
       <c r="G71" t="n">
-        <v>-18468.41022328001</v>
+        <v>-19866.52521994</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3030,22 +3172,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C72" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D72" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E72" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F72" t="n">
-        <v>322.8628</v>
+        <v>1.68634064</v>
       </c>
       <c r="G72" t="n">
-        <v>-18468.41022328001</v>
+        <v>-19866.52521994</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3066,22 +3208,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C73" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D73" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E73" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F73" t="n">
-        <v>166.9999</v>
+        <v>470</v>
       </c>
       <c r="G73" t="n">
-        <v>-18301.41032328001</v>
+        <v>-20336.52521994</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3102,22 +3244,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C74" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D74" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E74" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F74" t="n">
-        <v>71.9999</v>
+        <v>290</v>
       </c>
       <c r="G74" t="n">
-        <v>-18301.41032328001</v>
+        <v>-20336.52521994</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3138,31 +3280,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C75" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D75" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E75" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F75" t="n">
-        <v>275</v>
+        <v>216.233</v>
       </c>
       <c r="G75" t="n">
-        <v>-18301.41032328001</v>
+        <v>-20120.29221994</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>585</v>
+      </c>
+      <c r="K75" t="n">
+        <v>585</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3174,32 +3320,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C76" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D76" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E76" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F76" t="n">
-        <v>571</v>
+        <v>2.3061</v>
       </c>
       <c r="G76" t="n">
-        <v>-18301.41032328001</v>
+        <v>-20117.98611994</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>586</v>
+      </c>
+      <c r="K76" t="n">
+        <v>585</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3210,32 +3364,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C77" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D77" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E77" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G77" t="n">
-        <v>-18301.41032328001</v>
+        <v>-20137.98611994</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>588</v>
+      </c>
+      <c r="K77" t="n">
+        <v>585</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3246,32 +3408,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C78" t="n">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D78" t="n">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="E78" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F78" t="n">
-        <v>494.6569</v>
+        <v>46.24261345</v>
       </c>
       <c r="G78" t="n">
-        <v>-17806.75342328001</v>
+        <v>-20091.74350649</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>586</v>
+      </c>
+      <c r="K78" t="n">
+        <v>585</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3282,32 +3452,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C79" t="n">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="D79" t="n">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E79" t="n">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="F79" t="n">
-        <v>1528.84711343</v>
+        <v>425.4503</v>
       </c>
       <c r="G79" t="n">
-        <v>-16277.90630985001</v>
+        <v>-20517.19380649</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>587</v>
+      </c>
+      <c r="K79" t="n">
+        <v>585</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3318,32 +3496,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C80" t="n">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D80" t="n">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E80" t="n">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="F80" t="n">
-        <v>1.821</v>
+        <v>104.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>-16276.08530985001</v>
+        <v>-20412.19390649</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>585</v>
+      </c>
+      <c r="K80" t="n">
+        <v>585</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3354,32 +3540,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C81" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D81" t="n">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E81" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F81" t="n">
-        <v>501.9999</v>
+        <v>716.1158</v>
       </c>
       <c r="G81" t="n">
-        <v>-16778.08520985001</v>
+        <v>-20412.19390649</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>587</v>
+      </c>
+      <c r="K81" t="n">
+        <v>585</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3390,32 +3584,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C82" t="n">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D82" t="n">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E82" t="n">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="F82" t="n">
-        <v>1666.66666666</v>
+        <v>289.6081</v>
       </c>
       <c r="G82" t="n">
-        <v>-15111.41854319001</v>
+        <v>-20412.19390649</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>587</v>
+      </c>
+      <c r="K82" t="n">
+        <v>585</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3426,32 +3628,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="C83" t="n">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="D83" t="n">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="E83" t="n">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F83" t="n">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="G83" t="n">
-        <v>-13911.41854319001</v>
+        <v>-21602.19390649</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>587</v>
+      </c>
+      <c r="K83" t="n">
+        <v>585</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3462,32 +3672,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C84" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D84" t="n">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E84" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>331.7192</v>
       </c>
       <c r="G84" t="n">
-        <v>-14211.41854319001</v>
+        <v>-21602.19390649</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>581</v>
+      </c>
+      <c r="K84" t="n">
+        <v>585</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3498,32 +3716,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C85" t="n">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D85" t="n">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E85" t="n">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F85" t="n">
-        <v>211.8916</v>
+        <v>650</v>
       </c>
       <c r="G85" t="n">
-        <v>-13999.52694319001</v>
+        <v>-20952.19390649</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>581</v>
+      </c>
+      <c r="K85" t="n">
+        <v>585</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3534,32 +3760,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C86" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D86" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="E86" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F86" t="n">
-        <v>1184.3</v>
+        <v>550</v>
       </c>
       <c r="G86" t="n">
-        <v>-12815.22694319001</v>
+        <v>-21502.19390649</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>587</v>
+      </c>
+      <c r="K86" t="n">
+        <v>585</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3804,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C87" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D87" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="E87" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F87" t="n">
-        <v>678.4883</v>
+        <v>540</v>
       </c>
       <c r="G87" t="n">
-        <v>-12815.22694319001</v>
+        <v>-21502.19390649</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3594,8 +3828,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>585</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3846,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C88" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D88" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E88" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="F88" t="n">
-        <v>189.2029</v>
+        <v>762.923</v>
       </c>
       <c r="G88" t="n">
-        <v>-12815.22694319001</v>
+        <v>-20739.27090649</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3630,8 +3870,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>585</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3642,22 +3888,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C89" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D89" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E89" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F89" t="n">
-        <v>10.7971</v>
+        <v>21</v>
       </c>
       <c r="G89" t="n">
-        <v>-12815.22694319001</v>
+        <v>-20718.27090649</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3666,8 +3912,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>585</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3678,22 +3930,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C90" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D90" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E90" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F90" t="n">
-        <v>2481.6961</v>
+        <v>9</v>
       </c>
       <c r="G90" t="n">
-        <v>-12815.22694319001</v>
+        <v>-20718.27090649</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3702,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>585</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3714,22 +3972,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C91" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D91" t="n">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E91" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>1553.74685936</v>
       </c>
       <c r="G91" t="n">
-        <v>-12865.22694319001</v>
+        <v>-19164.52404713001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3738,8 +3996,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>585</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +4014,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C92" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D92" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E92" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F92" t="n">
-        <v>1072.827</v>
+        <v>1216.84504064</v>
       </c>
       <c r="G92" t="n">
-        <v>-12865.22694319001</v>
+        <v>-19164.52404713001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3774,8 +4038,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>585</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3786,22 +4056,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C93" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D93" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E93" t="n">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="F93" t="n">
-        <v>611.3303</v>
+        <v>827.58942385</v>
       </c>
       <c r="G93" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18336.93462328001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3810,8 +4080,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>585</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3822,22 +4098,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C94" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D94" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E94" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F94" t="n">
-        <v>345.8785</v>
+        <v>5</v>
       </c>
       <c r="G94" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18341.93462328001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3846,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>585</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +4140,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C95" t="n">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D95" t="n">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E95" t="n">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F95" t="n">
-        <v>84</v>
+        <v>174.609</v>
       </c>
       <c r="G95" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18516.54362328001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3882,8 +4164,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>585</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +4182,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C96" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D96" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E96" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F96" t="n">
-        <v>536.092</v>
+        <v>191.0114</v>
       </c>
       <c r="G96" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18707.55502328001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3918,8 +4206,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>585</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +4224,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C97" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D97" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E97" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F97" t="n">
-        <v>136</v>
+        <v>386</v>
       </c>
       <c r="G97" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18707.55502328001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3954,8 +4248,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>585</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +4266,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C98" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D98" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E98" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F98" t="n">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="G98" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18707.55502328001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3990,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>585</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4002,22 +4308,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C99" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D99" t="n">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E99" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F99" t="n">
-        <v>126.2071</v>
+        <v>59.5657</v>
       </c>
       <c r="G99" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18707.55502328001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4026,8 +4332,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>585</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4350,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C100" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D100" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E100" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F100" t="n">
-        <v>850.867</v>
+        <v>239.1448</v>
       </c>
       <c r="G100" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18468.41022328001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4062,8 +4374,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>585</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +4392,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C101" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D101" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E101" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F101" t="n">
-        <v>371.3818</v>
+        <v>322.8628</v>
       </c>
       <c r="G101" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18468.41022328001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4098,8 +4416,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>585</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +4434,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C102" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D102" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E102" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F102" t="n">
-        <v>480</v>
+        <v>166.9999</v>
       </c>
       <c r="G102" t="n">
-        <v>-12253.89664319001</v>
+        <v>-18301.41032328001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4134,8 +4458,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>585</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4146,22 +4476,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C103" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D103" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E103" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F103" t="n">
-        <v>1221</v>
+        <v>71.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>-11032.89664319001</v>
+        <v>-18301.41032328001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4170,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>585</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +4518,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C104" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D104" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E104" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F104" t="n">
-        <v>5086.5324</v>
+        <v>275</v>
       </c>
       <c r="G104" t="n">
-        <v>-11032.89664319001</v>
+        <v>-18301.41032328001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4206,8 +4542,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>585</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4560,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C105" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D105" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E105" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F105" t="n">
-        <v>1298.8275</v>
+        <v>571</v>
       </c>
       <c r="G105" t="n">
-        <v>-11032.89664319001</v>
+        <v>-18301.41032328001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4242,8 +4584,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>585</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4602,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C106" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D106" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E106" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F106" t="n">
-        <v>1245.84717607</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>-9787.049467120009</v>
+        <v>-18301.41032328001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4278,8 +4626,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>585</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4644,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C107" t="n">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D107" t="n">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E107" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F107" t="n">
-        <v>103.7206</v>
+        <v>494.6569</v>
       </c>
       <c r="G107" t="n">
-        <v>-9890.770067120009</v>
+        <v>-17806.75342328001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4314,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>585</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +4686,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C108" t="n">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D108" t="n">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E108" t="n">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F108" t="n">
-        <v>1992.2247</v>
+        <v>1528.84711343</v>
       </c>
       <c r="G108" t="n">
-        <v>-11882.99476712001</v>
+        <v>-16277.90630985001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4350,8 +4710,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>585</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4362,22 +4728,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C109" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D109" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E109" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F109" t="n">
-        <v>15804.9607</v>
+        <v>1.821</v>
       </c>
       <c r="G109" t="n">
-        <v>3921.96593287999</v>
+        <v>-16276.08530985001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4386,8 +4752,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>585</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +4770,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C110" t="n">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D110" t="n">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E110" t="n">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F110" t="n">
-        <v>688293.5931000001</v>
+        <v>501.9999</v>
       </c>
       <c r="G110" t="n">
-        <v>3921.96593287999</v>
+        <v>-16778.08520985001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4422,8 +4794,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>585</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +4812,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C111" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D111" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E111" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F111" t="n">
-        <v>684840</v>
+        <v>1666.66666666</v>
       </c>
       <c r="G111" t="n">
-        <v>3921.96593287999</v>
+        <v>-15111.41854319001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4458,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>585</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4473,7 +4857,7 @@
         <v>601</v>
       </c>
       <c r="C112" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D112" t="n">
         <v>602</v>
@@ -4482,10 +4866,10 @@
         <v>601</v>
       </c>
       <c r="F112" t="n">
-        <v>680295.2076</v>
+        <v>1200</v>
       </c>
       <c r="G112" t="n">
-        <v>3921.96593287999</v>
+        <v>-13911.41854319001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4494,8 +4878,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>585</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4506,22 +4896,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C113" t="n">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D113" t="n">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E113" t="n">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F113" t="n">
-        <v>413538</v>
+        <v>300</v>
       </c>
       <c r="G113" t="n">
-        <v>3921.96593287999</v>
+        <v>-14211.41854319001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4530,8 +4920,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>585</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4938,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C114" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D114" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E114" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F114" t="n">
-        <v>5</v>
+        <v>211.8916</v>
       </c>
       <c r="G114" t="n">
-        <v>3921.96593287999</v>
+        <v>-13999.52694319001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4566,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>585</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4980,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C115" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D115" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E115" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F115" t="n">
-        <v>499950</v>
+        <v>1184.3</v>
       </c>
       <c r="G115" t="n">
-        <v>503871.96593288</v>
+        <v>-12815.22694319001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4602,8 +5004,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>585</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +5022,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C116" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D116" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E116" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F116" t="n">
-        <v>244462.50163585</v>
+        <v>678.4883</v>
       </c>
       <c r="G116" t="n">
-        <v>503871.96593288</v>
+        <v>-12815.22694319001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4638,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>585</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4650,32 +5064,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C117" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D117" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E117" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F117" t="n">
-        <v>146184</v>
+        <v>189.2029</v>
       </c>
       <c r="G117" t="n">
-        <v>650055.9659328801</v>
+        <v>-12815.22694319001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>585</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4686,22 +5106,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C118" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D118" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E118" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F118" t="n">
-        <v>364605</v>
+        <v>10.7971</v>
       </c>
       <c r="G118" t="n">
-        <v>650055.9659328801</v>
+        <v>-12815.22694319001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4710,8 +5130,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>585</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4722,32 +5148,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C119" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D119" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E119" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F119" t="n">
-        <v>368906.597</v>
+        <v>2481.6961</v>
       </c>
       <c r="G119" t="n">
-        <v>650055.9659328801</v>
+        <v>-12815.22694319001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>585</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4758,32 +5190,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C120" t="n">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D120" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E120" t="n">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F120" t="n">
-        <v>368160</v>
+        <v>50</v>
       </c>
       <c r="G120" t="n">
-        <v>650055.9659328801</v>
+        <v>-12865.22694319001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>585</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4794,32 +5232,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C121" t="n">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D121" t="n">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E121" t="n">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F121" t="n">
-        <v>366844</v>
+        <v>1072.827</v>
       </c>
       <c r="G121" t="n">
-        <v>650055.9659328801</v>
+        <v>-12865.22694319001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>585</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4830,32 +5274,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C122" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D122" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E122" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F122" t="n">
-        <v>362521</v>
+        <v>611.3303</v>
       </c>
       <c r="G122" t="n">
-        <v>650055.9659328801</v>
+        <v>-12253.89664319001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>585</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4866,32 +5316,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C123" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D123" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E123" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F123" t="n">
-        <v>361258.9999</v>
+        <v>345.8785</v>
       </c>
       <c r="G123" t="n">
-        <v>650055.9659328801</v>
+        <v>-12253.89664319001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>585</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4902,32 +5358,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C124" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D124" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E124" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F124" t="n">
-        <v>348336</v>
+        <v>84</v>
       </c>
       <c r="G124" t="n">
-        <v>650055.9659328801</v>
+        <v>-12253.89664319001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>585</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4938,32 +5400,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C125" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D125" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E125" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F125" t="n">
-        <v>357942.5231</v>
+        <v>536.092</v>
       </c>
       <c r="G125" t="n">
-        <v>650055.9659328801</v>
+        <v>-12253.89664319001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>585</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4974,32 +5442,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C126" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D126" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E126" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F126" t="n">
-        <v>216648</v>
+        <v>136</v>
       </c>
       <c r="G126" t="n">
-        <v>650055.9659328801</v>
+        <v>-12253.89664319001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>585</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5010,32 +5484,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C127" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D127" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E127" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F127" t="n">
-        <v>21842.0276</v>
+        <v>157</v>
       </c>
       <c r="G127" t="n">
-        <v>628213.93833288</v>
+        <v>-12253.89664319001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>585</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5046,32 +5526,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C128" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D128" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E128" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F128" t="n">
-        <v>880000</v>
+        <v>126.2071</v>
       </c>
       <c r="G128" t="n">
-        <v>628213.93833288</v>
+        <v>-12253.89664319001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>585</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5082,32 +5568,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C129" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D129" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E129" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F129" t="n">
-        <v>877357.9724</v>
+        <v>850.867</v>
       </c>
       <c r="G129" t="n">
-        <v>628213.93833288</v>
+        <v>-12253.89664319001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>585</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5118,36 +5610,1218 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>598</v>
+      </c>
+      <c r="C130" t="n">
+        <v>598</v>
+      </c>
+      <c r="D130" t="n">
+        <v>598</v>
+      </c>
+      <c r="E130" t="n">
+        <v>598</v>
+      </c>
+      <c r="F130" t="n">
+        <v>371.3818</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-12253.89664319001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>585</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>598</v>
+      </c>
+      <c r="C131" t="n">
+        <v>598</v>
+      </c>
+      <c r="D131" t="n">
+        <v>598</v>
+      </c>
+      <c r="E131" t="n">
+        <v>598</v>
+      </c>
+      <c r="F131" t="n">
+        <v>480</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-12253.89664319001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>585</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>601</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C132" t="n">
         <v>601</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D132" t="n">
         <v>601</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E132" t="n">
         <v>601</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F132" t="n">
+        <v>1221</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-11032.89664319001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>585</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>601</v>
+      </c>
+      <c r="C133" t="n">
+        <v>601</v>
+      </c>
+      <c r="D133" t="n">
+        <v>601</v>
+      </c>
+      <c r="E133" t="n">
+        <v>601</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5086.5324</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-11032.89664319001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>585</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>601</v>
+      </c>
+      <c r="C134" t="n">
+        <v>601</v>
+      </c>
+      <c r="D134" t="n">
+        <v>601</v>
+      </c>
+      <c r="E134" t="n">
+        <v>601</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1298.8275</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-11032.89664319001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>585</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>602</v>
+      </c>
+      <c r="C135" t="n">
+        <v>602</v>
+      </c>
+      <c r="D135" t="n">
+        <v>602</v>
+      </c>
+      <c r="E135" t="n">
+        <v>602</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1245.84717607</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-9787.049467120009</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>585</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>601</v>
+      </c>
+      <c r="C136" t="n">
+        <v>601</v>
+      </c>
+      <c r="D136" t="n">
+        <v>601</v>
+      </c>
+      <c r="E136" t="n">
+        <v>601</v>
+      </c>
+      <c r="F136" t="n">
+        <v>103.7206</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-9890.770067120009</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>585</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>599</v>
+      </c>
+      <c r="C137" t="n">
+        <v>599</v>
+      </c>
+      <c r="D137" t="n">
+        <v>599</v>
+      </c>
+      <c r="E137" t="n">
+        <v>599</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1992.2247</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-11882.99476712001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>585</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>601</v>
+      </c>
+      <c r="C138" t="n">
+        <v>601</v>
+      </c>
+      <c r="D138" t="n">
+        <v>602</v>
+      </c>
+      <c r="E138" t="n">
+        <v>601</v>
+      </c>
+      <c r="F138" t="n">
+        <v>15804.9607</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3921.96593287999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>585</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>601</v>
+      </c>
+      <c r="C139" t="n">
+        <v>601</v>
+      </c>
+      <c r="D139" t="n">
+        <v>601</v>
+      </c>
+      <c r="E139" t="n">
+        <v>601</v>
+      </c>
+      <c r="F139" t="n">
+        <v>688293.5931000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3921.96593287999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>585</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>601</v>
+      </c>
+      <c r="C140" t="n">
+        <v>601</v>
+      </c>
+      <c r="D140" t="n">
+        <v>601</v>
+      </c>
+      <c r="E140" t="n">
+        <v>601</v>
+      </c>
+      <c r="F140" t="n">
+        <v>684840</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3921.96593287999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>585</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>601</v>
+      </c>
+      <c r="C141" t="n">
+        <v>601</v>
+      </c>
+      <c r="D141" t="n">
+        <v>602</v>
+      </c>
+      <c r="E141" t="n">
+        <v>601</v>
+      </c>
+      <c r="F141" t="n">
+        <v>680295.2076</v>
+      </c>
+      <c r="G141" t="n">
+        <v>3921.96593287999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>585</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>601</v>
+      </c>
+      <c r="C142" t="n">
+        <v>601</v>
+      </c>
+      <c r="D142" t="n">
+        <v>601</v>
+      </c>
+      <c r="E142" t="n">
+        <v>601</v>
+      </c>
+      <c r="F142" t="n">
+        <v>413538</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3921.96593287999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>585</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>601</v>
+      </c>
+      <c r="C143" t="n">
+        <v>601</v>
+      </c>
+      <c r="D143" t="n">
+        <v>601</v>
+      </c>
+      <c r="E143" t="n">
+        <v>601</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>3921.96593287999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>585</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>602</v>
+      </c>
+      <c r="C144" t="n">
+        <v>602</v>
+      </c>
+      <c r="D144" t="n">
+        <v>602</v>
+      </c>
+      <c r="E144" t="n">
+        <v>602</v>
+      </c>
+      <c r="F144" t="n">
+        <v>499950</v>
+      </c>
+      <c r="G144" t="n">
+        <v>503871.96593288</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>585</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>602</v>
+      </c>
+      <c r="C145" t="n">
+        <v>602</v>
+      </c>
+      <c r="D145" t="n">
+        <v>604</v>
+      </c>
+      <c r="E145" t="n">
+        <v>602</v>
+      </c>
+      <c r="F145" t="n">
+        <v>244462.50163585</v>
+      </c>
+      <c r="G145" t="n">
+        <v>503871.96593288</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>585</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>603</v>
+      </c>
+      <c r="C146" t="n">
+        <v>603</v>
+      </c>
+      <c r="D146" t="n">
+        <v>603</v>
+      </c>
+      <c r="E146" t="n">
+        <v>603</v>
+      </c>
+      <c r="F146" t="n">
+        <v>146184</v>
+      </c>
+      <c r="G146" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>585</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>603</v>
+      </c>
+      <c r="C147" t="n">
+        <v>603</v>
+      </c>
+      <c r="D147" t="n">
+        <v>603</v>
+      </c>
+      <c r="E147" t="n">
+        <v>602</v>
+      </c>
+      <c r="F147" t="n">
+        <v>364605</v>
+      </c>
+      <c r="G147" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>585</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>603</v>
+      </c>
+      <c r="C148" t="n">
+        <v>603</v>
+      </c>
+      <c r="D148" t="n">
+        <v>603</v>
+      </c>
+      <c r="E148" t="n">
+        <v>602</v>
+      </c>
+      <c r="F148" t="n">
+        <v>368906.597</v>
+      </c>
+      <c r="G148" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>585</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>603</v>
+      </c>
+      <c r="C149" t="n">
+        <v>603</v>
+      </c>
+      <c r="D149" t="n">
+        <v>603</v>
+      </c>
+      <c r="E149" t="n">
+        <v>603</v>
+      </c>
+      <c r="F149" t="n">
+        <v>368160</v>
+      </c>
+      <c r="G149" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>585</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>603</v>
+      </c>
+      <c r="C150" t="n">
+        <v>603</v>
+      </c>
+      <c r="D150" t="n">
+        <v>603</v>
+      </c>
+      <c r="E150" t="n">
+        <v>602</v>
+      </c>
+      <c r="F150" t="n">
+        <v>366844</v>
+      </c>
+      <c r="G150" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>585</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>603</v>
+      </c>
+      <c r="C151" t="n">
+        <v>603</v>
+      </c>
+      <c r="D151" t="n">
+        <v>603</v>
+      </c>
+      <c r="E151" t="n">
+        <v>602</v>
+      </c>
+      <c r="F151" t="n">
+        <v>362521</v>
+      </c>
+      <c r="G151" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>585</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>603</v>
+      </c>
+      <c r="C152" t="n">
+        <v>603</v>
+      </c>
+      <c r="D152" t="n">
+        <v>603</v>
+      </c>
+      <c r="E152" t="n">
+        <v>602</v>
+      </c>
+      <c r="F152" t="n">
+        <v>361258.9999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>585</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1.025769230769231</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>603</v>
+      </c>
+      <c r="C153" t="n">
+        <v>603</v>
+      </c>
+      <c r="D153" t="n">
+        <v>603</v>
+      </c>
+      <c r="E153" t="n">
+        <v>603</v>
+      </c>
+      <c r="F153" t="n">
+        <v>348336</v>
+      </c>
+      <c r="G153" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>603</v>
+      </c>
+      <c r="C154" t="n">
+        <v>603</v>
+      </c>
+      <c r="D154" t="n">
+        <v>604</v>
+      </c>
+      <c r="E154" t="n">
+        <v>603</v>
+      </c>
+      <c r="F154" t="n">
+        <v>357942.5231</v>
+      </c>
+      <c r="G154" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>603</v>
+      </c>
+      <c r="C155" t="n">
+        <v>603</v>
+      </c>
+      <c r="D155" t="n">
+        <v>603</v>
+      </c>
+      <c r="E155" t="n">
+        <v>603</v>
+      </c>
+      <c r="F155" t="n">
+        <v>216648</v>
+      </c>
+      <c r="G155" t="n">
+        <v>650055.9659328801</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>602</v>
+      </c>
+      <c r="C156" t="n">
+        <v>601</v>
+      </c>
+      <c r="D156" t="n">
+        <v>602</v>
+      </c>
+      <c r="E156" t="n">
+        <v>601</v>
+      </c>
+      <c r="F156" t="n">
+        <v>21842.0276</v>
+      </c>
+      <c r="G156" t="n">
+        <v>628213.93833288</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>601</v>
+      </c>
+      <c r="C157" t="n">
+        <v>601</v>
+      </c>
+      <c r="D157" t="n">
+        <v>601</v>
+      </c>
+      <c r="E157" t="n">
+        <v>601</v>
+      </c>
+      <c r="F157" t="n">
+        <v>880000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>628213.93833288</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>601</v>
+      </c>
+      <c r="C158" t="n">
+        <v>601</v>
+      </c>
+      <c r="D158" t="n">
+        <v>601</v>
+      </c>
+      <c r="E158" t="n">
+        <v>601</v>
+      </c>
+      <c r="F158" t="n">
+        <v>877357.9724</v>
+      </c>
+      <c r="G158" t="n">
+        <v>628213.93833288</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>601</v>
+      </c>
+      <c r="C159" t="n">
+        <v>601</v>
+      </c>
+      <c r="D159" t="n">
+        <v>601</v>
+      </c>
+      <c r="E159" t="n">
+        <v>601</v>
+      </c>
+      <c r="F159" t="n">
         <v>860242.0276</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G159" t="n">
         <v>628213.93833288</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest BCD.xlsx
+++ b/BackTest/2019-11-01 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,1534 +583,1444 @@
         <v>-20350.14264924</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>578</v>
+      </c>
+      <c r="C7" t="n">
+        <v>584</v>
+      </c>
+      <c r="D7" t="n">
+        <v>584</v>
+      </c>
+      <c r="E7" t="n">
+        <v>577</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3549.9999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-16800.14274924</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>584</v>
+      </c>
+      <c r="C8" t="n">
+        <v>584</v>
+      </c>
+      <c r="D8" t="n">
+        <v>584</v>
+      </c>
+      <c r="E8" t="n">
+        <v>584</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.10787671</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-16800.14274924</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>581</v>
+      </c>
+      <c r="C9" t="n">
         <v>580</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="D9" t="n">
+        <v>581</v>
+      </c>
+      <c r="E9" t="n">
+        <v>580</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2030.7264</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-18830.86914924</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>578</v>
+      </c>
+      <c r="C10" t="n">
+        <v>578</v>
+      </c>
+      <c r="D10" t="n">
+        <v>578</v>
+      </c>
+      <c r="E10" t="n">
+        <v>578</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3159.7545</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-21990.62364924</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>578</v>
+      </c>
+      <c r="C11" t="n">
+        <v>578</v>
+      </c>
+      <c r="D11" t="n">
+        <v>578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>578</v>
+      </c>
+      <c r="F11" t="n">
+        <v>680.6094000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-21990.62364924</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>579</v>
+      </c>
+      <c r="C12" t="n">
+        <v>578</v>
+      </c>
+      <c r="D12" t="n">
+        <v>579</v>
+      </c>
+      <c r="E12" t="n">
+        <v>578</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2511.6836</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-21990.62364924</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>576</v>
+      </c>
+      <c r="C13" t="n">
+        <v>581</v>
+      </c>
+      <c r="D13" t="n">
+        <v>581</v>
+      </c>
+      <c r="E13" t="n">
+        <v>576</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3668.5393</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-18322.08434924</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>575</v>
+      </c>
+      <c r="C14" t="n">
+        <v>575</v>
+      </c>
+      <c r="D14" t="n">
+        <v>575</v>
+      </c>
+      <c r="E14" t="n">
+        <v>575</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1578.5718</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-19900.65614924</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>581</v>
+      </c>
+      <c r="J14" t="n">
+        <v>581</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>578</v>
+      </c>
+      <c r="C15" t="n">
+        <v>578</v>
+      </c>
+      <c r="D15" t="n">
+        <v>578</v>
+      </c>
+      <c r="E15" t="n">
+        <v>578</v>
+      </c>
+      <c r="F15" t="n">
+        <v>101.9591</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-19798.69704924</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>575</v>
+      </c>
+      <c r="J15" t="n">
+        <v>581</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>585</v>
+      </c>
+      <c r="C16" t="n">
+        <v>578</v>
+      </c>
+      <c r="D16" t="n">
+        <v>585</v>
+      </c>
+      <c r="E16" t="n">
+        <v>578</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1216.993</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-19798.69704924</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>578</v>
+      </c>
+      <c r="J16" t="n">
+        <v>581</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>579</v>
+      </c>
+      <c r="C17" t="n">
+        <v>579</v>
+      </c>
+      <c r="D17" t="n">
+        <v>579</v>
+      </c>
+      <c r="E17" t="n">
+        <v>579</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.4403</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-19797.25674924</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
         <v>578</v>
       </c>
-      <c r="C7" t="n">
-        <v>584</v>
-      </c>
-      <c r="D7" t="n">
-        <v>584</v>
-      </c>
-      <c r="E7" t="n">
-        <v>577</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3549.9999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-16800.14274924</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>578</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="J17" t="n">
+        <v>581</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>584</v>
-      </c>
-      <c r="C8" t="n">
-        <v>584</v>
-      </c>
-      <c r="D8" t="n">
-        <v>584</v>
-      </c>
-      <c r="E8" t="n">
-        <v>584</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.10787671</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-16800.14274924</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>584</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>579</v>
+      </c>
+      <c r="C18" t="n">
+        <v>579</v>
+      </c>
+      <c r="D18" t="n">
+        <v>579</v>
+      </c>
+      <c r="E18" t="n">
+        <v>579</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1094.5254</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-19797.25674924</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>579</v>
+      </c>
+      <c r="J18" t="n">
+        <v>581</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>581</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>580</v>
       </c>
-      <c r="D9" t="n">
-        <v>581</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="C19" t="n">
+        <v>578</v>
+      </c>
+      <c r="D19" t="n">
         <v>580</v>
       </c>
-      <c r="F9" t="n">
-        <v>2030.7264</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-18830.86914924</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="E19" t="n">
+        <v>578</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3017.2559</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-22814.51264924</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>579</v>
+      </c>
+      <c r="J19" t="n">
+        <v>581</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>583</v>
+      </c>
+      <c r="C20" t="n">
+        <v>583</v>
+      </c>
+      <c r="D20" t="n">
+        <v>583</v>
+      </c>
+      <c r="E20" t="n">
+        <v>583</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-22812.51264924</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
         <v>578</v>
       </c>
-      <c r="C10" t="n">
-        <v>578</v>
-      </c>
-      <c r="D10" t="n">
-        <v>578</v>
-      </c>
-      <c r="E10" t="n">
-        <v>578</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3159.7545</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-21990.62364924</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>580</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="J20" t="n">
+        <v>581</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>578</v>
-      </c>
-      <c r="C11" t="n">
-        <v>578</v>
-      </c>
-      <c r="D11" t="n">
-        <v>578</v>
-      </c>
-      <c r="E11" t="n">
-        <v>578</v>
-      </c>
-      <c r="F11" t="n">
-        <v>680.6094000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-21990.62364924</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>578</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>581</v>
+      </c>
+      <c r="C21" t="n">
+        <v>581</v>
+      </c>
+      <c r="D21" t="n">
+        <v>581</v>
+      </c>
+      <c r="E21" t="n">
+        <v>581</v>
+      </c>
+      <c r="F21" t="n">
+        <v>436</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-23248.51264924</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>581</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>579</v>
-      </c>
-      <c r="C12" t="n">
-        <v>578</v>
-      </c>
-      <c r="D12" t="n">
-        <v>579</v>
-      </c>
-      <c r="E12" t="n">
-        <v>578</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2511.6836</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-21990.62364924</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>578</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>581</v>
+      </c>
+      <c r="C22" t="n">
+        <v>582</v>
+      </c>
+      <c r="D22" t="n">
+        <v>582</v>
+      </c>
+      <c r="E22" t="n">
+        <v>581</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2444.6372</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-20803.87544924</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>581</v>
+      </c>
+      <c r="J22" t="n">
+        <v>581</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>576</v>
-      </c>
-      <c r="C13" t="n">
-        <v>581</v>
-      </c>
-      <c r="D13" t="n">
-        <v>581</v>
-      </c>
-      <c r="E13" t="n">
-        <v>576</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3668.5393</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-18322.08434924</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>578</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>582</v>
+      </c>
+      <c r="C23" t="n">
+        <v>582</v>
+      </c>
+      <c r="D23" t="n">
+        <v>582</v>
+      </c>
+      <c r="E23" t="n">
+        <v>582</v>
+      </c>
+      <c r="F23" t="n">
+        <v>602.9725</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-20803.87544924</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>582</v>
+      </c>
+      <c r="J23" t="n">
+        <v>581</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>575</v>
-      </c>
-      <c r="C14" t="n">
-        <v>575</v>
-      </c>
-      <c r="D14" t="n">
-        <v>575</v>
-      </c>
-      <c r="E14" t="n">
-        <v>575</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1578.5718</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-19900.65614924</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>581</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>582</v>
+      </c>
+      <c r="C24" t="n">
+        <v>582</v>
+      </c>
+      <c r="D24" t="n">
+        <v>582</v>
+      </c>
+      <c r="E24" t="n">
+        <v>582</v>
+      </c>
+      <c r="F24" t="n">
+        <v>772.1134</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-20803.87544924</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>582</v>
+      </c>
+      <c r="J24" t="n">
+        <v>581</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>578</v>
-      </c>
-      <c r="C15" t="n">
-        <v>578</v>
-      </c>
-      <c r="D15" t="n">
-        <v>578</v>
-      </c>
-      <c r="E15" t="n">
-        <v>578</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.9591</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-19798.69704924</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>575</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>581</v>
+      </c>
+      <c r="C25" t="n">
+        <v>579</v>
+      </c>
+      <c r="D25" t="n">
+        <v>581</v>
+      </c>
+      <c r="E25" t="n">
+        <v>579</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3947.5713</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-24751.44674924</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>582</v>
+      </c>
+      <c r="J25" t="n">
+        <v>581</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>585</v>
-      </c>
-      <c r="C16" t="n">
-        <v>578</v>
-      </c>
-      <c r="D16" t="n">
-        <v>585</v>
-      </c>
-      <c r="E16" t="n">
-        <v>578</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1216.993</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-19798.69704924</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>578</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>580</v>
+      </c>
+      <c r="C26" t="n">
+        <v>580</v>
+      </c>
+      <c r="D26" t="n">
+        <v>580</v>
+      </c>
+      <c r="E26" t="n">
+        <v>580</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1176</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-23575.44674924</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>579</v>
+      </c>
+      <c r="J26" t="n">
+        <v>581</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>579</v>
-      </c>
-      <c r="C17" t="n">
-        <v>579</v>
-      </c>
-      <c r="D17" t="n">
-        <v>579</v>
-      </c>
-      <c r="E17" t="n">
-        <v>579</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.4403</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-19797.25674924</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>578</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>580</v>
+      </c>
+      <c r="C27" t="n">
+        <v>580</v>
+      </c>
+      <c r="D27" t="n">
+        <v>580</v>
+      </c>
+      <c r="E27" t="n">
+        <v>580</v>
+      </c>
+      <c r="F27" t="n">
+        <v>339.9999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-23575.44674924</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>580</v>
+      </c>
+      <c r="J27" t="n">
+        <v>581</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>579</v>
-      </c>
-      <c r="C18" t="n">
-        <v>579</v>
-      </c>
-      <c r="D18" t="n">
-        <v>579</v>
-      </c>
-      <c r="E18" t="n">
-        <v>579</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1094.5254</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-19797.25674924</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>579</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>580</v>
+      </c>
+      <c r="C28" t="n">
+        <v>580</v>
+      </c>
+      <c r="D28" t="n">
+        <v>580</v>
+      </c>
+      <c r="E28" t="n">
+        <v>580</v>
+      </c>
+      <c r="F28" t="n">
+        <v>131</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-23575.44674924</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>581</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>580</v>
       </c>
-      <c r="C19" t="n">
-        <v>578</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C29" t="n">
         <v>580</v>
       </c>
-      <c r="E19" t="n">
-        <v>578</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3017.2559</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-22814.51264924</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>579</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="D29" t="n">
+        <v>580</v>
+      </c>
+      <c r="E29" t="n">
+        <v>580</v>
+      </c>
+      <c r="F29" t="n">
+        <v>353</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-23575.44674924</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>581</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>583</v>
-      </c>
-      <c r="C20" t="n">
-        <v>583</v>
-      </c>
-      <c r="D20" t="n">
-        <v>583</v>
-      </c>
-      <c r="E20" t="n">
-        <v>583</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>580</v>
+      </c>
+      <c r="C30" t="n">
+        <v>580</v>
+      </c>
+      <c r="D30" t="n">
+        <v>580</v>
+      </c>
+      <c r="E30" t="n">
+        <v>580</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-23575.44674924</v>
+      </c>
+      <c r="H30" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="n">
-        <v>-22812.51264924</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>578</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="I30" t="n">
+        <v>580</v>
+      </c>
+      <c r="J30" t="n">
+        <v>581</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>581</v>
-      </c>
-      <c r="C21" t="n">
-        <v>581</v>
-      </c>
-      <c r="D21" t="n">
-        <v>581</v>
-      </c>
-      <c r="E21" t="n">
-        <v>581</v>
-      </c>
-      <c r="F21" t="n">
-        <v>436</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-23248.51264924</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>583</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>581</v>
+      </c>
+      <c r="C31" t="n">
+        <v>581</v>
+      </c>
+      <c r="D31" t="n">
+        <v>581</v>
+      </c>
+      <c r="E31" t="n">
+        <v>581</v>
+      </c>
+      <c r="F31" t="n">
+        <v>491.0596</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-23084.38714924</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>581</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>581</v>
-      </c>
-      <c r="C22" t="n">
-        <v>582</v>
-      </c>
-      <c r="D22" t="n">
-        <v>582</v>
-      </c>
-      <c r="E22" t="n">
-        <v>581</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2444.6372</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-20803.87544924</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>585</v>
+      </c>
+      <c r="C32" t="n">
+        <v>585</v>
+      </c>
+      <c r="D32" t="n">
+        <v>585</v>
+      </c>
+      <c r="E32" t="n">
+        <v>585</v>
+      </c>
+      <c r="F32" t="n">
+        <v>338.13504273</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-22746.25210651</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>581</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>582</v>
-      </c>
-      <c r="C23" t="n">
-        <v>582</v>
-      </c>
-      <c r="D23" t="n">
-        <v>582</v>
-      </c>
-      <c r="E23" t="n">
-        <v>582</v>
-      </c>
-      <c r="F23" t="n">
-        <v>602.9725</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-20803.87544924</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>584</v>
+      </c>
+      <c r="C33" t="n">
+        <v>584</v>
+      </c>
+      <c r="D33" t="n">
+        <v>584</v>
+      </c>
+      <c r="E33" t="n">
+        <v>584</v>
+      </c>
+      <c r="F33" t="n">
+        <v>289</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-23035.25210651</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>585</v>
+      </c>
+      <c r="J33" t="n">
+        <v>581</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>582</v>
-      </c>
-      <c r="C24" t="n">
-        <v>582</v>
-      </c>
-      <c r="D24" t="n">
-        <v>582</v>
-      </c>
-      <c r="E24" t="n">
-        <v>582</v>
-      </c>
-      <c r="F24" t="n">
-        <v>772.1134</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-20803.87544924</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>585</v>
+      </c>
+      <c r="C34" t="n">
+        <v>590</v>
+      </c>
+      <c r="D34" t="n">
+        <v>590</v>
+      </c>
+      <c r="E34" t="n">
+        <v>585</v>
+      </c>
+      <c r="F34" t="n">
+        <v>144</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-22891.25210651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>584</v>
+      </c>
+      <c r="J34" t="n">
+        <v>581</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>581</v>
-      </c>
-      <c r="C25" t="n">
-        <v>579</v>
-      </c>
-      <c r="D25" t="n">
-        <v>581</v>
-      </c>
-      <c r="E25" t="n">
-        <v>579</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3947.5713</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-24751.44674924</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>590</v>
+      </c>
+      <c r="C35" t="n">
+        <v>590</v>
+      </c>
+      <c r="D35" t="n">
+        <v>590</v>
+      </c>
+      <c r="E35" t="n">
+        <v>590</v>
+      </c>
+      <c r="F35" t="n">
+        <v>80.39490000000001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-22891.25210651</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>581</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>580</v>
-      </c>
-      <c r="C26" t="n">
-        <v>580</v>
-      </c>
-      <c r="D26" t="n">
-        <v>580</v>
-      </c>
-      <c r="E26" t="n">
-        <v>580</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1176</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-23575.44674924</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>590</v>
+      </c>
+      <c r="C36" t="n">
+        <v>590</v>
+      </c>
+      <c r="D36" t="n">
+        <v>590</v>
+      </c>
+      <c r="E36" t="n">
+        <v>590</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.727e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-22891.25210651</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>581</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>580</v>
-      </c>
-      <c r="C27" t="n">
-        <v>580</v>
-      </c>
-      <c r="D27" t="n">
-        <v>580</v>
-      </c>
-      <c r="E27" t="n">
-        <v>580</v>
-      </c>
-      <c r="F27" t="n">
-        <v>339.9999</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-23575.44674924</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>590</v>
+      </c>
+      <c r="C37" t="n">
+        <v>590</v>
+      </c>
+      <c r="D37" t="n">
+        <v>590</v>
+      </c>
+      <c r="E37" t="n">
+        <v>590</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1000.5492</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-22891.25210651</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>581</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>580</v>
-      </c>
-      <c r="C28" t="n">
-        <v>580</v>
-      </c>
-      <c r="D28" t="n">
-        <v>580</v>
-      </c>
-      <c r="E28" t="n">
-        <v>580</v>
-      </c>
-      <c r="F28" t="n">
-        <v>131</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-23575.44674924</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>592</v>
+      </c>
+      <c r="C38" t="n">
+        <v>592</v>
+      </c>
+      <c r="D38" t="n">
+        <v>592</v>
+      </c>
+      <c r="E38" t="n">
+        <v>592</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5589.9915</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-17301.26060651</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>581</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>580</v>
-      </c>
-      <c r="C29" t="n">
-        <v>580</v>
-      </c>
-      <c r="D29" t="n">
-        <v>580</v>
-      </c>
-      <c r="E29" t="n">
-        <v>580</v>
-      </c>
-      <c r="F29" t="n">
-        <v>353</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-23575.44674924</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>591</v>
+      </c>
+      <c r="C39" t="n">
+        <v>590</v>
+      </c>
+      <c r="D39" t="n">
+        <v>591</v>
+      </c>
+      <c r="E39" t="n">
+        <v>590</v>
+      </c>
+      <c r="F39" t="n">
+        <v>908</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-18209.26060651</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>581</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>580</v>
-      </c>
-      <c r="C30" t="n">
-        <v>580</v>
-      </c>
-      <c r="D30" t="n">
-        <v>580</v>
-      </c>
-      <c r="E30" t="n">
-        <v>580</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-23575.44674924</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>593</v>
+      </c>
+      <c r="C40" t="n">
+        <v>593</v>
+      </c>
+      <c r="D40" t="n">
+        <v>593</v>
+      </c>
+      <c r="E40" t="n">
+        <v>593</v>
+      </c>
+      <c r="F40" t="n">
+        <v>71.51430000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-18137.74630651</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>581</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>581</v>
-      </c>
-      <c r="C31" t="n">
-        <v>581</v>
-      </c>
-      <c r="D31" t="n">
-        <v>581</v>
-      </c>
-      <c r="E31" t="n">
-        <v>581</v>
-      </c>
-      <c r="F31" t="n">
-        <v>491.0596</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-23084.38714924</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>580</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>594</v>
+      </c>
+      <c r="C41" t="n">
+        <v>594</v>
+      </c>
+      <c r="D41" t="n">
+        <v>594</v>
+      </c>
+      <c r="E41" t="n">
+        <v>594</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6.0115</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-18131.73480651</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>581</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>585</v>
-      </c>
-      <c r="C32" t="n">
-        <v>585</v>
-      </c>
-      <c r="D32" t="n">
-        <v>585</v>
-      </c>
-      <c r="E32" t="n">
-        <v>585</v>
-      </c>
-      <c r="F32" t="n">
-        <v>338.13504273</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-22746.25210651</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>598</v>
+      </c>
+      <c r="C42" t="n">
+        <v>598</v>
+      </c>
+      <c r="D42" t="n">
+        <v>598</v>
+      </c>
+      <c r="E42" t="n">
+        <v>598</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1255.4665</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-16876.26830651</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>581</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>584</v>
-      </c>
-      <c r="C33" t="n">
-        <v>584</v>
-      </c>
-      <c r="D33" t="n">
-        <v>584</v>
-      </c>
-      <c r="E33" t="n">
-        <v>584</v>
-      </c>
-      <c r="F33" t="n">
-        <v>289</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-23035.25210651</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>598</v>
+      </c>
+      <c r="C43" t="n">
+        <v>598</v>
+      </c>
+      <c r="D43" t="n">
+        <v>598</v>
+      </c>
+      <c r="E43" t="n">
+        <v>598</v>
+      </c>
+      <c r="F43" t="n">
+        <v>300</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-16876.26830651</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>581</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>585</v>
-      </c>
-      <c r="C34" t="n">
-        <v>590</v>
-      </c>
-      <c r="D34" t="n">
-        <v>590</v>
-      </c>
-      <c r="E34" t="n">
-        <v>585</v>
-      </c>
-      <c r="F34" t="n">
-        <v>144</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-22891.25210651</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>590</v>
-      </c>
-      <c r="C35" t="n">
-        <v>590</v>
-      </c>
-      <c r="D35" t="n">
-        <v>590</v>
-      </c>
-      <c r="E35" t="n">
-        <v>590</v>
-      </c>
-      <c r="F35" t="n">
-        <v>80.39490000000001</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-22891.25210651</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>590</v>
-      </c>
-      <c r="C36" t="n">
-        <v>590</v>
-      </c>
-      <c r="D36" t="n">
-        <v>590</v>
-      </c>
-      <c r="E36" t="n">
-        <v>590</v>
-      </c>
-      <c r="F36" t="n">
-        <v>5.727e-05</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-22891.25210651</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>590</v>
-      </c>
-      <c r="C37" t="n">
-        <v>590</v>
-      </c>
-      <c r="D37" t="n">
-        <v>590</v>
-      </c>
-      <c r="E37" t="n">
-        <v>590</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1000.5492</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-22891.25210651</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>592</v>
-      </c>
-      <c r="C38" t="n">
-        <v>592</v>
-      </c>
-      <c r="D38" t="n">
-        <v>592</v>
-      </c>
-      <c r="E38" t="n">
-        <v>592</v>
-      </c>
-      <c r="F38" t="n">
-        <v>5589.9915</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-17301.26060651</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>591</v>
-      </c>
-      <c r="C39" t="n">
-        <v>590</v>
-      </c>
-      <c r="D39" t="n">
-        <v>591</v>
-      </c>
-      <c r="E39" t="n">
-        <v>590</v>
-      </c>
-      <c r="F39" t="n">
-        <v>908</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-18209.26060651</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>593</v>
-      </c>
-      <c r="C40" t="n">
-        <v>593</v>
-      </c>
-      <c r="D40" t="n">
-        <v>593</v>
-      </c>
-      <c r="E40" t="n">
-        <v>593</v>
-      </c>
-      <c r="F40" t="n">
-        <v>71.51430000000001</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-18137.74630651</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>594</v>
-      </c>
-      <c r="C41" t="n">
-        <v>594</v>
-      </c>
-      <c r="D41" t="n">
-        <v>594</v>
-      </c>
-      <c r="E41" t="n">
-        <v>594</v>
-      </c>
-      <c r="F41" t="n">
-        <v>6.0115</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-18131.73480651</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>598</v>
-      </c>
-      <c r="C42" t="n">
-        <v>598</v>
-      </c>
-      <c r="D42" t="n">
-        <v>598</v>
-      </c>
-      <c r="E42" t="n">
-        <v>598</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1255.4665</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-16876.26830651</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>598</v>
-      </c>
-      <c r="C43" t="n">
-        <v>598</v>
-      </c>
-      <c r="D43" t="n">
-        <v>598</v>
-      </c>
-      <c r="E43" t="n">
-        <v>598</v>
-      </c>
-      <c r="F43" t="n">
-        <v>300</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-16876.26830651</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2152,22 +2045,21 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>581</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1.020817555938038</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2194,20 +2086,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2234,20 +2119,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2274,20 +2152,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2314,20 +2185,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2354,20 +2218,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2394,20 +2251,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2432,20 +2282,15 @@
         <v>-13514.70340651</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L51" t="n">
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2470,18 +2315,15 @@
         <v>-13514.70340651</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2506,18 +2348,15 @@
         <v>-13514.70340651</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2542,18 +2381,15 @@
         <v>-13514.70340651</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2578,18 +2414,15 @@
         <v>-13814.70340651</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2614,18 +2447,15 @@
         <v>-13965.70340651</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2650,18 +2480,15 @@
         <v>-13965.70340651</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2686,18 +2513,15 @@
         <v>-15615.11340651</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2724,16 +2548,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2760,16 +2581,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2796,16 +2614,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2832,16 +2647,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2868,16 +2680,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2904,16 +2713,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2940,16 +2746,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2974,18 +2777,15 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3012,16 +2812,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3048,16 +2845,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3084,16 +2878,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3118,18 +2909,15 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3154,18 +2942,15 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3190,18 +2975,15 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3226,18 +3008,15 @@
         <v>-20336.52521994</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3262,18 +3041,15 @@
         <v>-20336.52521994</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3300,20 +3076,13 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>585</v>
-      </c>
-      <c r="K75" t="n">
-        <v>585</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3338,26 +3107,15 @@
         <v>-20117.98611994</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>586</v>
-      </c>
-      <c r="K76" t="n">
-        <v>585</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3382,26 +3140,15 @@
         <v>-20137.98611994</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>588</v>
-      </c>
-      <c r="K77" t="n">
-        <v>585</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3428,24 +3175,13 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>586</v>
-      </c>
-      <c r="K78" t="n">
-        <v>585</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3470,26 +3206,15 @@
         <v>-20517.19380649</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>587</v>
-      </c>
-      <c r="K79" t="n">
-        <v>585</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3514,26 +3239,15 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>585</v>
-      </c>
-      <c r="K80" t="n">
-        <v>585</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3558,26 +3272,15 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>587</v>
-      </c>
-      <c r="K81" t="n">
-        <v>585</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3602,26 +3305,15 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>587</v>
-      </c>
-      <c r="K82" t="n">
-        <v>585</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3646,26 +3338,15 @@
         <v>-21602.19390649</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>587</v>
-      </c>
-      <c r="K83" t="n">
-        <v>585</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3690,26 +3371,15 @@
         <v>-21602.19390649</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>581</v>
-      </c>
-      <c r="K84" t="n">
-        <v>585</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3734,26 +3404,15 @@
         <v>-20952.19390649</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>581</v>
-      </c>
-      <c r="K85" t="n">
-        <v>585</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3778,26 +3437,15 @@
         <v>-21502.19390649</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>587</v>
-      </c>
-      <c r="K86" t="n">
-        <v>585</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3824,22 +3472,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>585</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3866,22 +3505,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>585</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3908,22 +3538,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>585</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3950,22 +3571,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>585</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3992,22 +3604,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>585</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4034,22 +3637,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>585</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4076,22 +3670,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>585</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4118,22 +3703,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>585</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4160,22 +3736,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>585</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4202,22 +3769,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>585</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4244,22 +3802,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>585</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4286,22 +3835,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>585</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4328,22 +3868,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>585</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4370,22 +3901,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>585</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4412,22 +3934,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>585</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4454,22 +3967,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>585</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4496,22 +4000,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>585</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4538,22 +4033,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>585</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4580,22 +4066,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>585</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4622,22 +4099,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>585</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4664,22 +4132,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>585</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4706,22 +4165,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>585</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4748,22 +4198,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>585</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4790,22 +4231,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>585</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4832,22 +4264,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>585</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4874,22 +4297,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>585</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4916,22 +4330,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>585</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4958,22 +4363,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>585</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5000,22 +4396,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>585</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5042,22 +4429,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>585</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5084,22 +4462,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>585</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5126,22 +4495,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>585</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5168,22 +4528,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>585</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5210,22 +4561,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>585</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5252,22 +4594,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>585</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5294,22 +4627,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>585</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5336,22 +4660,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>585</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5378,22 +4693,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>585</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5420,22 +4726,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>585</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5462,22 +4759,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>585</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5504,22 +4792,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>585</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5546,22 +4825,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>585</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5588,22 +4858,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>585</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5630,22 +4891,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>585</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5672,22 +4924,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>585</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5714,22 +4957,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>585</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5756,22 +4990,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>585</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5798,22 +5023,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>585</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5840,22 +5056,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>585</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5882,22 +5089,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>585</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5924,22 +5122,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>585</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5966,22 +5155,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>585</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6008,22 +5188,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>585</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6050,22 +5221,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>585</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6092,22 +5254,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>585</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6134,22 +5287,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>585</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6176,22 +5320,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>585</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6218,22 +5353,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>585</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6260,22 +5386,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>585</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6302,22 +5419,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>585</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6344,22 +5452,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>585</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6386,22 +5485,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>585</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6428,22 +5518,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>585</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6470,22 +5551,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>585</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6512,22 +5584,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>585</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6554,22 +5617,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>585</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1.025769230769231</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6596,16 +5650,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6632,16 +5683,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6668,16 +5716,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6704,16 +5749,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6740,16 +5782,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6776,16 +5815,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6810,20 +5846,17 @@
         <v>628213.93833288</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest BCD.xlsx
+++ b/BackTest/2019-11-01 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,11 +616,17 @@
         <v>-16800.14274924</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>578</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +655,17 @@
         <v>-16800.14274924</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>584</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +698,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -717,9 +733,15 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>580</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -750,9 +772,15 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>578</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -783,9 +811,15 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>578</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +848,17 @@
         <v>-18322.08434924</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>578</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,15 +887,17 @@
         <v>-19900.65614924</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>581</v>
       </c>
-      <c r="J14" t="n">
-        <v>581</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,17 +926,15 @@
         <v>-19798.69704924</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>575</v>
       </c>
-      <c r="J15" t="n">
-        <v>581</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -925,17 +965,15 @@
         <v>-19798.69704924</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>578</v>
       </c>
-      <c r="J16" t="n">
-        <v>581</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -966,14 +1004,12 @@
         <v>-19797.25674924</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>578</v>
       </c>
-      <c r="J17" t="n">
-        <v>581</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1007,14 +1043,12 @@
         <v>-19797.25674924</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>579</v>
       </c>
-      <c r="J18" t="n">
-        <v>581</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1048,14 +1082,12 @@
         <v>-22814.51264924</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>579</v>
       </c>
-      <c r="J19" t="n">
-        <v>581</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1089,14 +1121,12 @@
         <v>-22812.51264924</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>578</v>
       </c>
-      <c r="J20" t="n">
-        <v>581</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1130,12 +1160,12 @@
         <v>-23248.51264924</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>583</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1169,14 +1199,12 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>581</v>
       </c>
-      <c r="J22" t="n">
-        <v>581</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1210,14 +1238,12 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>582</v>
       </c>
-      <c r="J23" t="n">
-        <v>581</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1251,14 +1277,12 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>582</v>
       </c>
-      <c r="J24" t="n">
-        <v>581</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1292,14 +1316,12 @@
         <v>-24751.44674924</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>582</v>
       </c>
-      <c r="J25" t="n">
-        <v>581</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1333,14 +1355,12 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>579</v>
       </c>
-      <c r="J26" t="n">
-        <v>581</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1374,14 +1394,12 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>580</v>
       </c>
-      <c r="J27" t="n">
-        <v>581</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1415,12 +1433,12 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>580</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1454,12 +1472,12 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>580</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1493,14 +1511,12 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>580</v>
       </c>
-      <c r="J30" t="n">
-        <v>581</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1534,12 +1550,12 @@
         <v>-23084.38714924</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>580</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1573,12 +1589,12 @@
         <v>-22746.25210651</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>581</v>
       </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,14 +1628,10 @@
         <v>-23035.25210651</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>585</v>
-      </c>
-      <c r="J33" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1653,14 +1665,10 @@
         <v>-22891.25210651</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>584</v>
-      </c>
-      <c r="J34" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1694,12 +1702,10 @@
         <v>-22891.25210651</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>581</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1733,12 +1739,10 @@
         <v>-22891.25210651</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>581</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1775,9 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>581</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1814,9 +1816,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>581</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,12 +1850,10 @@
         <v>-18209.26060651</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>581</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1892,9 +1890,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>581</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1931,9 +1927,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>581</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1970,9 +1964,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>581</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2009,9 +2001,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>581</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,19 +2035,17 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>581</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.020817555938038</v>
+        <v>1</v>
       </c>
       <c r="M44" t="inlineStr"/>
     </row>
@@ -2088,7 +2076,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2121,7 +2113,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2150,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2187,7 +2187,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2224,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2261,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2294,15 @@
         <v>-13514.70340651</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2315,11 +2331,15 @@
         <v>-13514.70340651</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2368,15 @@
         <v>-13514.70340651</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2405,15 @@
         <v>-13514.70340651</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2442,15 @@
         <v>-13814.70340651</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2479,15 @@
         <v>-13965.70340651</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2480,11 +2516,15 @@
         <v>-13965.70340651</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2553,15 @@
         <v>-15615.11340651</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2550,7 +2594,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2579,11 +2627,17 @@
         <v>-15644.02220651</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>593</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2616,7 +2670,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2645,11 +2703,17 @@
         <v>-19401.73760651</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>591</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +2742,17 @@
         <v>-19401.73760651</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>590</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2781,17 @@
         <v>-19400.05701994</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>590</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2820,17 @@
         <v>-19400.05701994</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>596</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2777,11 +2859,15 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2814,7 +2900,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2847,7 +2937,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2970,17 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>593</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2911,9 +3011,15 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>593</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2944,9 +3050,15 @@
       <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>593</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2977,9 +3089,15 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>593</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3010,9 +3128,15 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>593</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3043,9 +3167,15 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>585</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3076,9 +3206,15 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>585</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3107,11 +3243,17 @@
         <v>-20117.98611994</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>586</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3140,11 +3282,17 @@
         <v>-20137.98611994</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>588</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3175,9 +3323,15 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>586</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3206,11 +3360,17 @@
         <v>-20517.19380649</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>587</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3239,11 +3399,17 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>585</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3272,11 +3438,17 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>587</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3305,11 +3477,17 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>587</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3520,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3371,11 +3553,17 @@
         <v>-21602.19390649</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>581</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3404,11 +3592,17 @@
         <v>-20952.19390649</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>581</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3437,11 +3631,17 @@
         <v>-21502.19390649</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>587</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3670,17 @@
         <v>-21502.19390649</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>586</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3503,11 +3709,17 @@
         <v>-20739.27090649</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>586</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3748,17 @@
         <v>-20718.27090649</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>588</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3791,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3606,7 +3828,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3639,7 +3865,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3672,7 +3902,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3705,7 +3939,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3738,7 +3976,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3771,7 +4013,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3804,7 +4050,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3837,7 +4087,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3870,7 +4124,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3903,7 +4161,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3936,7 +4198,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3969,7 +4235,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4002,7 +4272,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4035,7 +4309,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4068,7 +4346,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4101,7 +4383,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4134,7 +4420,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4167,7 +4457,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4200,7 +4494,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4233,7 +4531,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4266,7 +4568,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4299,7 +4605,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4332,7 +4642,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4365,7 +4679,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4398,7 +4716,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4431,7 +4753,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4464,7 +4790,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4497,7 +4827,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4530,7 +4864,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4563,7 +4901,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4596,7 +4938,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4629,7 +4975,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4662,7 +5012,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4695,7 +5049,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5086,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4761,7 +5123,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4794,7 +5160,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4827,7 +5197,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4860,7 +5234,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4893,7 +5271,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4926,7 +5308,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4959,7 +5345,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4992,7 +5382,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5025,7 +5419,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5058,7 +5456,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5091,7 +5493,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5124,7 +5530,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5157,7 +5567,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5190,7 +5604,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5223,7 +5641,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5256,7 +5678,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5289,7 +5715,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5322,7 +5752,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5789,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5388,7 +5826,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5421,7 +5863,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5900,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +5937,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5520,7 +5974,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5553,7 +6011,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5582,14 +6044,16 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -5615,7 +6079,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5648,7 +6112,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5681,7 +6145,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5714,7 +6178,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5747,7 +6211,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5780,7 +6244,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5813,7 +6277,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5846,7 +6310,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5857,6 +6321,6 @@
       <c r="M159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest BCD.xlsx
+++ b/BackTest/2019-11-01 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,210 +616,182 @@
         <v>-16800.14274924</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>584</v>
+      </c>
+      <c r="C8" t="n">
+        <v>584</v>
+      </c>
+      <c r="D8" t="n">
+        <v>584</v>
+      </c>
+      <c r="E8" t="n">
+        <v>584</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.10787671</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-16800.14274924</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>581</v>
+      </c>
+      <c r="C9" t="n">
+        <v>580</v>
+      </c>
+      <c r="D9" t="n">
+        <v>581</v>
+      </c>
+      <c r="E9" t="n">
+        <v>580</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2030.7264</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-18830.86914924</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>578</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="C10" t="n">
+        <v>578</v>
+      </c>
+      <c r="D10" t="n">
+        <v>578</v>
+      </c>
+      <c r="E10" t="n">
+        <v>578</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3159.7545</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-21990.62364924</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>578</v>
+      </c>
+      <c r="C11" t="n">
+        <v>578</v>
+      </c>
+      <c r="D11" t="n">
+        <v>578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>578</v>
+      </c>
+      <c r="F11" t="n">
+        <v>680.6094000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-21990.62364924</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>579</v>
+      </c>
+      <c r="C12" t="n">
+        <v>578</v>
+      </c>
+      <c r="D12" t="n">
+        <v>579</v>
+      </c>
+      <c r="E12" t="n">
+        <v>578</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2511.6836</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-21990.62364924</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>578</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>584</v>
-      </c>
-      <c r="C8" t="n">
-        <v>584</v>
-      </c>
-      <c r="D8" t="n">
-        <v>584</v>
-      </c>
-      <c r="E8" t="n">
-        <v>584</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.10787671</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-16800.14274924</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>584</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>581</v>
-      </c>
-      <c r="C9" t="n">
-        <v>580</v>
-      </c>
-      <c r="D9" t="n">
-        <v>581</v>
-      </c>
-      <c r="E9" t="n">
-        <v>580</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2030.7264</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-18830.86914924</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>578</v>
-      </c>
-      <c r="C10" t="n">
-        <v>578</v>
-      </c>
-      <c r="D10" t="n">
-        <v>578</v>
-      </c>
-      <c r="E10" t="n">
-        <v>578</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3159.7545</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-21990.62364924</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>580</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>578</v>
-      </c>
-      <c r="C11" t="n">
-        <v>578</v>
-      </c>
-      <c r="D11" t="n">
-        <v>578</v>
-      </c>
-      <c r="E11" t="n">
-        <v>578</v>
-      </c>
-      <c r="F11" t="n">
-        <v>680.6094000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-21990.62364924</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>578</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>579</v>
-      </c>
-      <c r="C12" t="n">
-        <v>578</v>
-      </c>
-      <c r="D12" t="n">
-        <v>579</v>
-      </c>
-      <c r="E12" t="n">
-        <v>578</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2511.6836</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-21990.62364924</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>578</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -848,11 +820,9 @@
         <v>-18322.08434924</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -1160,11 +1130,9 @@
         <v>-23248.51264924</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1199,11 +1167,9 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1238,11 +1204,9 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1277,11 +1241,9 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1316,11 +1278,9 @@
         <v>-24751.44674924</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1355,11 +1315,9 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1394,11 +1352,9 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1433,11 +1389,9 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1472,11 +1426,9 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1511,11 +1463,9 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1550,11 +1500,9 @@
         <v>-23084.38714924</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1589,11 +1537,9 @@
         <v>-22746.25210651</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1813,18 +1759,16 @@
         <v>-17301.26060651</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1850,15 +1794,11 @@
         <v>-18209.26060651</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1887,15 +1827,11 @@
         <v>-18137.74630651</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1924,15 +1860,11 @@
         <v>-18131.73480651</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1961,15 +1893,11 @@
         <v>-16876.26830651</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1998,15 +1926,11 @@
         <v>-16876.26830651</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2035,15 +1959,11 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2072,15 +1992,11 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2109,15 +2025,11 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2062,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2187,11 +2095,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2224,11 +2128,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2261,11 +2161,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2298,11 +2194,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2335,11 +2227,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2372,11 +2260,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2409,11 +2293,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2446,11 +2326,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2483,11 +2359,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2520,11 +2392,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2557,11 +2425,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2594,11 +2458,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2627,17 +2487,11 @@
         <v>-15644.02220651</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2524,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2703,17 +2553,11 @@
         <v>-19401.73760651</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2742,17 +2586,11 @@
         <v>-19401.73760651</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2781,17 +2619,11 @@
         <v>-19400.05701994</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2820,17 +2652,11 @@
         <v>-19400.05701994</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2863,11 +2689,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2722,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2937,11 +2755,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2970,17 +2784,11 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3009,17 +2817,11 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3048,17 +2850,11 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3087,17 +2883,11 @@
         <v>-19866.52521994</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3126,17 +2916,11 @@
         <v>-20336.52521994</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3165,17 +2949,11 @@
         <v>-20336.52521994</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3204,17 +2982,11 @@
         <v>-20120.29221994</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3243,17 +3015,11 @@
         <v>-20117.98611994</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3282,17 +3048,11 @@
         <v>-20137.98611994</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3321,17 +3081,11 @@
         <v>-20091.74350649</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3360,17 +3114,11 @@
         <v>-20517.19380649</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3399,17 +3147,11 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3438,17 +3180,11 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3477,17 +3213,11 @@
         <v>-20412.19390649</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3250,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3553,17 +3279,11 @@
         <v>-21602.19390649</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3592,17 +3312,11 @@
         <v>-20952.19390649</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3631,17 +3345,11 @@
         <v>-21502.19390649</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3670,17 +3378,11 @@
         <v>-21502.19390649</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3709,17 +3411,11 @@
         <v>-20739.27090649</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3748,17 +3444,11 @@
         <v>-20718.27090649</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3791,11 +3481,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3828,11 +3514,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3865,11 +3547,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +3580,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3939,11 +3613,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3976,11 +3646,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4013,11 +3679,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +3712,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +3745,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4124,11 +3778,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4161,11 +3811,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4198,11 +3844,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4235,11 +3877,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4272,11 +3910,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4309,11 +3943,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4346,11 +3976,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +4009,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4420,11 +4042,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4457,11 +4075,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4494,11 +4108,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4531,11 +4141,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4568,11 +4174,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4605,11 +4207,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4240,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4273,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4716,11 +4306,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4753,11 +4339,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4372,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4827,11 +4405,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4864,11 +4438,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4901,11 +4471,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +4504,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +4537,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5012,11 +4570,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5049,11 +4603,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5086,11 +4636,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5123,11 +4669,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5160,11 +4702,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5197,11 +4735,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5234,11 +4768,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +4801,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5308,11 +4834,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5345,11 +4867,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5382,11 +4900,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5419,11 +4933,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5456,11 +4966,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5493,11 +4999,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +5032,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5567,11 +5065,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +5098,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5641,11 +5131,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5678,11 +5164,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5715,11 +5197,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +5230,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5789,11 +5263,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5826,11 +5296,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5329,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5900,11 +5362,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5937,11 +5395,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +5428,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +5461,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6044,16 +5490,14 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
       <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -6079,7 +5523,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6112,7 +5556,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6145,7 +5589,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6178,7 +5622,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6211,7 +5655,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6244,7 +5688,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6277,7 +5721,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6310,7 +5754,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6321,6 +5765,6 @@
       <c r="M159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest BCD.xlsx
+++ b/BackTest/2019-11-01 BackTest BCD.xlsx
@@ -748,10 +748,14 @@
         <v>-21990.62364924</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>578</v>
+      </c>
+      <c r="J11" t="n">
+        <v>578</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -786,7 +790,9 @@
       <c r="I12" t="n">
         <v>578</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>578</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -820,10 +826,14 @@
         <v>-18322.08434924</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>578</v>
+      </c>
+      <c r="J13" t="n">
+        <v>578</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -862,7 +872,9 @@
       <c r="I14" t="n">
         <v>581</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>578</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -901,7 +913,9 @@
       <c r="I15" t="n">
         <v>575</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>578</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -940,7 +954,9 @@
       <c r="I16" t="n">
         <v>578</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>578</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -979,7 +995,9 @@
       <c r="I17" t="n">
         <v>578</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>578</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1018,7 +1036,9 @@
       <c r="I18" t="n">
         <v>579</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>578</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1057,7 +1077,9 @@
       <c r="I19" t="n">
         <v>579</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>578</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1096,7 +1118,9 @@
       <c r="I20" t="n">
         <v>578</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>578</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1130,10 +1154,14 @@
         <v>-23248.51264924</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>583</v>
+      </c>
+      <c r="J21" t="n">
+        <v>578</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1167,10 +1195,14 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>581</v>
+      </c>
+      <c r="J22" t="n">
+        <v>578</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1204,10 +1236,14 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>582</v>
+      </c>
+      <c r="J23" t="n">
+        <v>578</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1241,10 +1277,14 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>582</v>
+      </c>
+      <c r="J24" t="n">
+        <v>578</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1278,10 +1318,14 @@
         <v>-24751.44674924</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>582</v>
+      </c>
+      <c r="J25" t="n">
+        <v>578</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1315,10 +1359,14 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>579</v>
+      </c>
+      <c r="J26" t="n">
+        <v>578</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1352,10 +1400,14 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>580</v>
+      </c>
+      <c r="J27" t="n">
+        <v>578</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1389,10 +1441,14 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>580</v>
+      </c>
+      <c r="J28" t="n">
+        <v>578</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,10 +1482,14 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>580</v>
+      </c>
+      <c r="J29" t="n">
+        <v>578</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1463,10 +1523,14 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>580</v>
+      </c>
+      <c r="J30" t="n">
+        <v>578</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1500,10 +1564,14 @@
         <v>-23084.38714924</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>580</v>
+      </c>
+      <c r="J31" t="n">
+        <v>578</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1537,10 +1605,14 @@
         <v>-22746.25210651</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>581</v>
+      </c>
+      <c r="J32" t="n">
+        <v>578</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1577,7 +1649,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>578</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1614,7 +1688,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>578</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,7 +1727,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>578</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1688,7 +1766,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>578</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1725,7 +1805,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>578</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1759,16 +1841,20 @@
         <v>-17301.26060651</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>578</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1794,11 +1880,17 @@
         <v>-18209.26060651</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>578</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1919,17 @@
         <v>-18137.74630651</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>578</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1860,11 +1958,17 @@
         <v>-18131.73480651</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>578</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1893,11 +1997,17 @@
         <v>-16876.26830651</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>578</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1926,11 +2036,17 @@
         <v>-16876.26830651</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>578</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1959,11 +2075,17 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>578</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1992,11 +2114,17 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>578</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2025,11 +2153,17 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>578</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2061,8 +2195,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>578</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2094,8 +2234,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>578</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2127,8 +2273,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>578</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2160,8 +2312,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>578</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2193,8 +2351,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>578</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2226,8 +2390,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>578</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2259,8 +2429,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>578</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2292,8 +2468,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>578</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2325,8 +2507,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>578</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2358,8 +2546,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>578</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2391,8 +2585,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>578</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2424,8 +2624,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>578</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2457,8 +2663,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>578</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2490,8 +2702,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>578</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2523,8 +2741,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>578</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2556,8 +2780,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>578</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2586,11 +2816,19 @@
         <v>-19401.73760651</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>590</v>
+      </c>
+      <c r="J63" t="n">
+        <v>578</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2619,11 +2857,19 @@
         <v>-19400.05701994</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>590</v>
+      </c>
+      <c r="J64" t="n">
+        <v>578</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2655,8 +2901,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>578</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2688,8 +2940,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>578</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2721,8 +2979,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>578</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2754,8 +3018,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>578</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2787,8 +3057,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>578</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2820,8 +3096,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>578</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2853,8 +3135,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>578</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2886,8 +3174,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>578</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2919,8 +3213,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>578</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2952,8 +3252,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>578</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2985,8 +3291,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>578</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3018,8 +3330,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>578</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3051,8 +3369,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>578</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3084,8 +3408,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>578</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3117,8 +3447,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>578</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3150,8 +3486,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>578</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3183,8 +3525,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>578</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3216,8 +3564,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>578</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3249,8 +3603,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>578</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3282,8 +3642,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>578</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3315,8 +3681,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>578</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3348,8 +3720,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>578</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3381,8 +3759,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>578</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3414,8 +3798,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>578</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3447,8 +3837,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>578</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3480,8 +3876,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>578</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3513,8 +3915,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>578</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3546,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>578</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3579,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>578</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3612,8 +4032,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>578</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3645,8 +4071,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>578</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3678,8 +4110,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>578</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3711,8 +4149,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>578</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3744,8 +4188,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>578</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3777,8 +4227,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>578</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3810,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>578</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3843,8 +4305,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>578</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3876,8 +4344,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>578</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3909,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>578</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3942,8 +4422,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>578</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3975,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>578</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4008,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>578</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4041,8 +4539,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>578</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4074,8 +4578,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>578</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4107,8 +4617,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>578</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4140,8 +4656,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>578</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4173,8 +4695,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>578</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4206,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>578</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4239,8 +4773,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>578</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>578</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4305,8 +4851,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>578</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4338,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>578</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4371,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>578</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4404,8 +4968,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>578</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4437,8 +5007,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>578</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4470,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>578</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4503,8 +5085,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>578</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4536,8 +5124,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>578</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4569,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>578</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4602,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>578</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4635,8 +5241,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>578</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4668,8 +5280,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>578</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4701,8 +5319,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>578</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4734,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>578</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4767,8 +5397,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>578</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4800,8 +5436,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>578</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4833,8 +5475,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>578</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4866,8 +5514,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>578</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4899,8 +5553,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>578</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4932,8 +5592,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>578</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4965,8 +5631,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>578</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4998,8 +5670,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>578</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5031,8 +5709,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>578</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5064,8 +5748,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>578</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5097,8 +5787,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>578</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5130,8 +5826,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>578</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5163,8 +5865,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>578</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5196,8 +5904,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>578</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5229,8 +5943,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>578</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5262,8 +5982,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>578</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5295,8 +6021,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>578</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5328,8 +6060,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>578</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5361,8 +6099,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>578</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5394,8 +6138,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>578</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +6177,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>578</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5460,8 +6216,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>578</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5493,8 +6255,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>578</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5526,8 +6294,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>578</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5556,13 +6330,19 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>578</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L153" t="n">
-        <v>1</v>
+        <v>1.03825259515571</v>
       </c>
       <c r="M153" t="inlineStr"/>
     </row>
@@ -5589,7 +6369,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5622,7 +6402,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5655,7 +6435,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5688,7 +6468,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5721,7 +6501,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5754,7 +6534,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
